--- a/Inventário de Ativos Intangíveis/2025/3. Analise de Dados/3.2. Dados/Dados.xlsx
+++ b/Inventário de Ativos Intangíveis/2025/3. Analise de Dados/3.2. Dados/Dados.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Seplag\Inventário de Ativos Intangíveis\2024\3. Analise de Dados\3.2. Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathasmarques\Documents\GitHub\Seplag\Inventário de Ativos Intangíveis\2025\3. Analise de Dados\3.2. Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89576EC6-EFD7-4538-906E-DBCF48DE49AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$O$82</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="103">
   <si>
     <t>Exercício</t>
   </si>
@@ -375,15 +377,73 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Sistema de Gestão de Assiduidade</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Censo</t>
+  </si>
+  <si>
+    <t>Sistema do Censo Previdenciário</t>
+  </si>
+  <si>
+    <t>SIES</t>
+  </si>
+  <si>
+    <t>Sistema Estadual de Seleção</t>
+  </si>
+  <si>
+    <t>SINOVA</t>
+  </si>
+  <si>
+    <t>Sistema Prêmio Eficiência e Inovação</t>
+  </si>
+  <si>
+    <t>Revisa</t>
+  </si>
+  <si>
+    <t>Revisa Consignados</t>
+  </si>
+  <si>
+    <t>Opiniões</t>
+  </si>
+  <si>
+    <t>Sistema de Opiniões</t>
+  </si>
+  <si>
+    <t>SIADES</t>
+  </si>
+  <si>
+    <t>Sistema de Avaliação de Desempenho</t>
+  </si>
+  <si>
+    <t>Banco de Talentos</t>
+  </si>
+  <si>
+    <t>Sistema de Banco de Talentos</t>
+  </si>
+  <si>
+    <t>INDICATIVA (NESMA)</t>
+  </si>
+  <si>
+    <t>Estimativa (NESMA)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +474,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +517,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DEF4B"/>
+        <bgColor rgb="FF8DEF4B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFD5A6BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -470,11 +583,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,6 +684,88 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,23 +1046,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +1110,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
         <v>2024</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -915,8 +1157,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="44">
         <v>2024</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -962,8 +1204,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
         <v>2024</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1009,8 +1251,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
         <v>2024</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1058,8 +1300,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
         <v>2024</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1105,8 +1347,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
         <v>2024</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1152,8 +1394,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <v>2024</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1199,8 +1441,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="44">
         <v>2024</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1246,8 +1488,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>2024</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1293,8 +1535,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
         <v>2024</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1340,8 +1582,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
         <v>2024</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1387,8 +1629,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="44">
         <v>2024</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1436,8 +1678,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="44">
         <v>2024</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1483,8 +1725,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <v>2024</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1530,8 +1772,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
         <v>2024</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1577,8 +1819,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="44">
         <v>2024</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1626,8 +1868,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
         <v>2024</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1673,8 +1915,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
         <v>2024</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1720,8 +1962,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>2024</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1767,8 +2009,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
         <v>2024</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1814,8 +2056,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
         <v>2024</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1861,8 +2103,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
         <v>2024</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1908,8 +2150,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
         <v>2024</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1955,8 +2197,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
         <v>2024</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1994,8 +2236,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="44">
         <v>2024</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2041,21 +2283,68 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
         <v>2023</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45271</v>
+      </c>
+      <c r="H27" s="6">
+        <v>181.7</v>
+      </c>
+      <c r="I27" s="7">
+        <v>705.6</v>
+      </c>
+      <c r="J27" s="8">
+        <f>H27*I27</f>
+        <v>128207.51999999999</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="8">
+        <f>J27+(J27*K27)</f>
+        <v>192311.27999999997</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
+        <v>2023</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>19</v>
@@ -2064,21 +2353,21 @@
         <v>45271</v>
       </c>
       <c r="H28" s="6">
-        <v>181.7</v>
+        <v>665</v>
       </c>
       <c r="I28" s="7">
         <v>705.6</v>
       </c>
       <c r="J28" s="8">
         <f>H28*I28</f>
-        <v>128207.51999999999</v>
+        <v>469224</v>
       </c>
       <c r="K28" s="15">
         <v>0.5</v>
       </c>
       <c r="L28" s="8">
-        <f>J28+(J28*K28)</f>
-        <v>192311.27999999997</v>
+        <f t="shared" ref="L28:L50" si="4">J28+(J28*K28)</f>
+        <v>703836</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="4" t="s">
@@ -2088,21 +2377,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
         <v>2023</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>19</v>
@@ -2111,21 +2400,21 @@
         <v>45271</v>
       </c>
       <c r="H29" s="6">
-        <v>665</v>
+        <v>485.4</v>
       </c>
       <c r="I29" s="7">
         <v>705.6</v>
       </c>
       <c r="J29" s="8">
         <f>H29*I29</f>
-        <v>469224</v>
+        <v>342498.24</v>
       </c>
       <c r="K29" s="15">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" ref="L29:L51" si="4">J29+(J29*K29)</f>
-        <v>703836</v>
+        <f t="shared" si="4"/>
+        <v>599371.91999999993</v>
       </c>
       <c r="M29" s="10"/>
       <c r="N29" s="4" t="s">
@@ -2135,18 +2424,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:15" ht="375" x14ac:dyDescent="0.25">
+      <c r="A30" s="44">
         <v>2023</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>18</v>
@@ -2155,26 +2444,28 @@
         <v>19</v>
       </c>
       <c r="G30" s="5">
-        <v>45271</v>
+        <v>45148</v>
       </c>
       <c r="H30" s="6">
-        <v>485.4</v>
+        <v>1850</v>
       </c>
       <c r="I30" s="7">
         <v>705.6</v>
       </c>
       <c r="J30" s="8">
-        <f>H30*I30</f>
-        <v>342498.24</v>
+        <f t="shared" ref="J30:J50" si="5">H30*I30</f>
+        <v>1305360</v>
       </c>
       <c r="K30" s="15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="4"/>
-        <v>599371.91999999993</v>
-      </c>
-      <c r="M30" s="10"/>
+        <v>1631700</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="N30" s="4" t="s">
         <v>20</v>
       </c>
@@ -2182,18 +2473,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="360" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="44">
         <v>2023</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>18</v>
@@ -2202,28 +2493,26 @@
         <v>19</v>
       </c>
       <c r="G31" s="5">
-        <v>45148</v>
+        <v>45272</v>
       </c>
       <c r="H31" s="6">
-        <v>1850</v>
+        <v>255.6</v>
       </c>
       <c r="I31" s="7">
         <v>705.6</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" ref="J31:J51" si="5">H31*I31</f>
-        <v>1305360</v>
+        <f t="shared" si="5"/>
+        <v>180351.36000000002</v>
       </c>
       <c r="K31" s="15">
         <v>0.25</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="4"/>
-        <v>1631700</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>83</v>
-      </c>
+        <v>225439.2</v>
+      </c>
+      <c r="M31" s="10"/>
       <c r="N31" s="4" t="s">
         <v>20</v>
       </c>
@@ -2231,21 +2520,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="44">
         <v>2023</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>19</v>
@@ -2254,21 +2543,21 @@
         <v>45272</v>
       </c>
       <c r="H32" s="6">
-        <v>255.6</v>
+        <v>875</v>
       </c>
       <c r="I32" s="7">
         <v>705.6</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="5"/>
-        <v>180351.36000000002</v>
+        <v>617400</v>
       </c>
       <c r="K32" s="15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="4"/>
-        <v>225439.2</v>
+        <v>1080450</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="4" t="s">
@@ -2278,21 +2567,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="44">
         <v>2023</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>19</v>
@@ -2301,21 +2590,21 @@
         <v>45272</v>
       </c>
       <c r="H33" s="6">
-        <v>875</v>
+        <v>456</v>
       </c>
       <c r="I33" s="7">
         <v>705.6</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="5"/>
-        <v>617400</v>
+        <v>321753.60000000003</v>
       </c>
       <c r="K33" s="15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" si="4"/>
-        <v>1080450</v>
+        <v>402192.00000000006</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="4" t="s">
@@ -2325,44 +2614,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="44">
         <v>2023</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G34" s="5">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="H34" s="6">
-        <v>456</v>
+        <v>670</v>
       </c>
       <c r="I34" s="7">
         <v>705.6</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" si="5"/>
-        <v>321753.60000000003</v>
+        <v>472752</v>
       </c>
       <c r="K34" s="15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="4"/>
-        <v>402192.00000000006</v>
+        <v>827316</v>
       </c>
       <c r="M34" s="10"/>
       <c r="N34" s="4" t="s">
@@ -2372,44 +2661,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="44">
         <v>2023</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G35" s="5">
-        <v>45273</v>
+        <v>45272</v>
       </c>
       <c r="H35" s="6">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="I35" s="7">
         <v>705.6</v>
       </c>
       <c r="J35" s="8">
         <f t="shared" si="5"/>
-        <v>472752</v>
+        <v>528494.4</v>
       </c>
       <c r="K35" s="15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="4"/>
-        <v>827316</v>
+        <v>1056988.8</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="4" t="s">
@@ -2419,15 +2708,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
         <v>2023</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>17</v>
@@ -2436,27 +2725,27 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G36" s="5">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="H36" s="6">
-        <v>749</v>
+        <v>367</v>
       </c>
       <c r="I36" s="7">
         <v>705.6</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="5"/>
-        <v>528494.4</v>
+        <v>258955.2</v>
       </c>
       <c r="K36" s="15">
         <v>1</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="4"/>
-        <v>1056988.8</v>
+        <v>517910.4</v>
       </c>
       <c r="M36" s="10"/>
       <c r="N36" s="4" t="s">
@@ -2466,15 +2755,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="44">
         <v>2023</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>17</v>
@@ -2489,21 +2778,21 @@
         <v>45271</v>
       </c>
       <c r="H37" s="6">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="I37" s="7">
         <v>705.6</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="5"/>
-        <v>258955.2</v>
+        <v>56448</v>
       </c>
       <c r="K37" s="15">
         <v>1</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="4"/>
-        <v>517910.4</v>
+        <v>112896</v>
       </c>
       <c r="M37" s="10"/>
       <c r="N37" s="4" t="s">
@@ -2513,44 +2802,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="44">
         <v>2023</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G38" s="5">
-        <v>45271</v>
+        <v>45133</v>
       </c>
       <c r="H38" s="6">
-        <v>80</v>
+        <v>2015</v>
       </c>
       <c r="I38" s="7">
         <v>705.6</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="5"/>
-        <v>56448</v>
+        <v>1421784</v>
       </c>
       <c r="K38" s="15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="4"/>
-        <v>112896</v>
+        <v>2488122</v>
       </c>
       <c r="M38" s="10"/>
       <c r="N38" s="4" t="s">
@@ -2560,15 +2849,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="44">
         <v>2023</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>47</v>
@@ -2580,24 +2869,24 @@
         <v>19</v>
       </c>
       <c r="G39" s="5">
-        <v>45133</v>
+        <v>45072</v>
       </c>
       <c r="H39" s="6">
-        <v>2015</v>
+        <v>724</v>
       </c>
       <c r="I39" s="7">
         <v>705.6</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="5"/>
-        <v>1421784</v>
+        <v>510854.40000000002</v>
       </c>
       <c r="K39" s="15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="4"/>
-        <v>2488122</v>
+        <v>638568</v>
       </c>
       <c r="M39" s="10"/>
       <c r="N39" s="4" t="s">
@@ -2607,15 +2896,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="44">
         <v>2023</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>47</v>
@@ -2627,24 +2916,24 @@
         <v>19</v>
       </c>
       <c r="G40" s="5">
-        <v>45072</v>
+        <v>45149</v>
       </c>
       <c r="H40" s="6">
-        <v>724</v>
+        <v>542</v>
       </c>
       <c r="I40" s="7">
         <v>705.6</v>
       </c>
       <c r="J40" s="8">
         <f t="shared" si="5"/>
-        <v>510854.40000000002</v>
+        <v>382435.2</v>
       </c>
       <c r="K40" s="15">
         <v>0.25</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="4"/>
-        <v>638568</v>
+        <v>478044</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="4" t="s">
@@ -2654,18 +2943,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="44">
         <v>2023</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>18</v>
@@ -2674,24 +2963,24 @@
         <v>19</v>
       </c>
       <c r="G41" s="5">
-        <v>45149</v>
+        <v>45202</v>
       </c>
       <c r="H41" s="6">
-        <v>542</v>
+        <v>277.8</v>
       </c>
       <c r="I41" s="7">
         <v>705.6</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="5"/>
-        <v>382435.2</v>
+        <v>196015.68000000002</v>
       </c>
       <c r="K41" s="15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="4"/>
-        <v>478044</v>
+        <v>343027.44000000006</v>
       </c>
       <c r="M41" s="10"/>
       <c r="N41" s="4" t="s">
@@ -2701,15 +2990,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="44">
         <v>2023</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>61</v>
@@ -2721,24 +3010,24 @@
         <v>19</v>
       </c>
       <c r="G42" s="5">
-        <v>45202</v>
+        <v>45265</v>
       </c>
       <c r="H42" s="6">
-        <v>277.8</v>
+        <v>688.4</v>
       </c>
       <c r="I42" s="7">
         <v>705.6</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" si="5"/>
-        <v>196015.68000000002</v>
+        <v>485735.04</v>
       </c>
       <c r="K42" s="15">
         <v>0.75</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" si="4"/>
-        <v>343027.44000000006</v>
+        <v>850036.32</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="4" t="s">
@@ -2748,15 +3037,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="44">
         <v>2023</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>61</v>
@@ -2768,24 +3057,24 @@
         <v>19</v>
       </c>
       <c r="G43" s="5">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="H43" s="6">
-        <v>688.4</v>
+        <v>710.2</v>
       </c>
       <c r="I43" s="7">
         <v>705.6</v>
       </c>
       <c r="J43" s="8">
         <f t="shared" si="5"/>
-        <v>485735.04</v>
+        <v>501117.12000000005</v>
       </c>
       <c r="K43" s="15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="L43" s="8">
         <f t="shared" si="4"/>
-        <v>850036.32</v>
+        <v>626396.4</v>
       </c>
       <c r="M43" s="10"/>
       <c r="N43" s="4" t="s">
@@ -2795,15 +3084,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="44">
         <v>2023</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>61</v>
@@ -2818,21 +3107,21 @@
         <v>45267</v>
       </c>
       <c r="H44" s="6">
-        <v>710.2</v>
+        <v>110</v>
       </c>
       <c r="I44" s="7">
         <v>705.6</v>
       </c>
       <c r="J44" s="8">
         <f t="shared" si="5"/>
-        <v>501117.12000000005</v>
+        <v>77616</v>
       </c>
       <c r="K44" s="15">
         <v>0.25</v>
       </c>
       <c r="L44" s="8">
         <f t="shared" si="4"/>
-        <v>626396.4</v>
+        <v>97020</v>
       </c>
       <c r="M44" s="10"/>
       <c r="N44" s="4" t="s">
@@ -2842,44 +3131,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="44">
         <v>2023</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="5">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="H45" s="6">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="I45" s="7">
         <v>705.6</v>
       </c>
       <c r="J45" s="8">
         <f t="shared" si="5"/>
-        <v>77616</v>
+        <v>236376</v>
       </c>
       <c r="K45" s="15">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L45" s="8">
         <f t="shared" si="4"/>
-        <v>97020</v>
+        <v>472752</v>
       </c>
       <c r="M45" s="10"/>
       <c r="N45" s="4" t="s">
@@ -2889,21 +3178,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="44">
         <v>2023</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>19</v>
@@ -2912,21 +3201,21 @@
         <v>45272</v>
       </c>
       <c r="H46" s="6">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="I46" s="7">
         <v>705.6</v>
       </c>
       <c r="J46" s="8">
         <f t="shared" si="5"/>
-        <v>236376</v>
+        <v>32457.600000000002</v>
       </c>
       <c r="K46" s="15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="4"/>
-        <v>472752</v>
+        <v>40572</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="4" t="s">
@@ -2936,21 +3225,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="44">
         <v>2023</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>19</v>
@@ -2959,21 +3248,21 @@
         <v>45272</v>
       </c>
       <c r="H47" s="6">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="I47" s="7">
         <v>705.6</v>
       </c>
       <c r="J47" s="8">
         <f t="shared" si="5"/>
-        <v>32457.600000000002</v>
+        <v>169344</v>
       </c>
       <c r="K47" s="15">
         <v>0.25</v>
       </c>
       <c r="L47" s="8">
         <f t="shared" si="4"/>
-        <v>40572</v>
+        <v>211680</v>
       </c>
       <c r="M47" s="10"/>
       <c r="N47" s="4" t="s">
@@ -2983,21 +3272,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="44">
         <v>2023</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>19</v>
@@ -3006,21 +3295,21 @@
         <v>45272</v>
       </c>
       <c r="H48" s="6">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="I48" s="7">
         <v>705.6</v>
       </c>
       <c r="J48" s="8">
         <f t="shared" si="5"/>
-        <v>169344</v>
+        <v>36691.200000000004</v>
       </c>
       <c r="K48" s="15">
         <v>0.25</v>
       </c>
       <c r="L48" s="8">
         <f t="shared" si="4"/>
-        <v>211680</v>
+        <v>45864.000000000007</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="4" t="s">
@@ -3030,138 +3319,1564 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="44">
         <v>2023</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="5">
-        <v>45272</v>
-      </c>
-      <c r="H49" s="6">
-        <v>52</v>
-      </c>
-      <c r="I49" s="7">
-        <v>705.6</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="5"/>
-        <v>36691.200000000004</v>
-      </c>
+        <v>45271</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="4"/>
-        <v>45864.000000000007</v>
+        <v>1</v>
+      </c>
+      <c r="L49" s="18">
+        <v>96833.33</v>
       </c>
       <c r="M49" s="10"/>
       <c r="N49" s="4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="44">
         <v>2023</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="5">
-        <v>45271</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="18"/>
+        <v>45154</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4095</v>
+      </c>
+      <c r="I50" s="7">
+        <v>705.6</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="5"/>
+        <v>2889432</v>
+      </c>
       <c r="K50" s="15">
         <v>1</v>
       </c>
-      <c r="L50" s="18">
-        <v>96833.33</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="5">
-        <v>45154</v>
-      </c>
-      <c r="H51" s="6">
-        <v>4095</v>
-      </c>
-      <c r="I51" s="7">
-        <v>705.6</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="5"/>
-        <v>2889432</v>
-      </c>
-      <c r="K51" s="15">
-        <v>1</v>
-      </c>
-      <c r="L51" s="8">
+      <c r="L50" s="8">
         <f t="shared" si="4"/>
         <v>5778864</v>
       </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="16" t="s">
+      <c r="M50" s="10"/>
+      <c r="N50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="O51" s="16" t="s">
+      <c r="O50" s="16" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H51" s="25">
+        <v>5222</v>
+      </c>
+      <c r="I51" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J51" s="27">
+        <f>(H51*I51)</f>
+        <v>4925651.5</v>
+      </c>
+      <c r="K51" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="L51" s="36">
+        <f t="shared" ref="L51:L81" si="6">SUM((J51*K51),J51)</f>
+        <v>8619890.125</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H52" s="25">
+        <v>4095</v>
+      </c>
+      <c r="I52" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J52" s="27">
+        <f t="shared" ref="J52:J81" si="7">(H52*I52)</f>
+        <v>3862608.75</v>
+      </c>
+      <c r="K52" s="28">
+        <v>1</v>
+      </c>
+      <c r="L52" s="36">
+        <f t="shared" si="6"/>
+        <v>7725217.5</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H53" s="25">
+        <v>2430</v>
+      </c>
+      <c r="I53" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J53" s="27">
+        <f t="shared" si="7"/>
+        <v>2292097.5</v>
+      </c>
+      <c r="K53" s="28">
+        <v>1</v>
+      </c>
+      <c r="L53" s="37">
+        <f t="shared" si="6"/>
+        <v>4584195</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H54" s="25">
+        <v>1302</v>
+      </c>
+      <c r="I54" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J54" s="27">
+        <f t="shared" si="7"/>
+        <v>1228111.5</v>
+      </c>
+      <c r="K54" s="28">
+        <v>1</v>
+      </c>
+      <c r="L54" s="38">
+        <f t="shared" si="6"/>
+        <v>2456223</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H55" s="25">
+        <v>905</v>
+      </c>
+      <c r="I55" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J55" s="27">
+        <f t="shared" si="7"/>
+        <v>853641.25</v>
+      </c>
+      <c r="K55" s="28">
+        <v>1</v>
+      </c>
+      <c r="L55" s="39">
+        <f t="shared" si="6"/>
+        <v>1707282.5</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H56" s="25">
+        <v>1392</v>
+      </c>
+      <c r="I56" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J56" s="27">
+        <f t="shared" si="7"/>
+        <v>1313004</v>
+      </c>
+      <c r="K56" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="L56" s="39">
+        <f t="shared" si="6"/>
+        <v>1641255</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="24">
+        <v>46000</v>
+      </c>
+      <c r="H57" s="25">
+        <v>750</v>
+      </c>
+      <c r="I57" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J57" s="27">
+        <f t="shared" si="7"/>
+        <v>707437.5</v>
+      </c>
+      <c r="K57" s="30">
+        <v>1</v>
+      </c>
+      <c r="L57" s="39">
+        <f t="shared" si="6"/>
+        <v>1414875</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H58" s="25">
+        <v>749</v>
+      </c>
+      <c r="I58" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J58" s="27">
+        <f t="shared" si="7"/>
+        <v>706494.25</v>
+      </c>
+      <c r="K58" s="28">
+        <v>1</v>
+      </c>
+      <c r="L58" s="39">
+        <f t="shared" si="6"/>
+        <v>1412988.5</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H59" s="25">
+        <v>699</v>
+      </c>
+      <c r="I59" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J59" s="27">
+        <f t="shared" si="7"/>
+        <v>659331.75</v>
+      </c>
+      <c r="K59" s="28">
+        <v>1</v>
+      </c>
+      <c r="L59" s="39">
+        <f t="shared" si="6"/>
+        <v>1318663.5</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H60" s="25">
+        <v>670</v>
+      </c>
+      <c r="I60" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J60" s="27">
+        <f t="shared" si="7"/>
+        <v>631977.5</v>
+      </c>
+      <c r="K60" s="28">
+        <v>1</v>
+      </c>
+      <c r="L60" s="39">
+        <f t="shared" si="6"/>
+        <v>1263955</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="24">
+        <v>46001</v>
+      </c>
+      <c r="H61" s="25">
+        <v>699</v>
+      </c>
+      <c r="I61" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J61" s="27">
+        <f t="shared" si="7"/>
+        <v>659331.75</v>
+      </c>
+      <c r="K61" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="L61" s="39">
+        <f t="shared" si="6"/>
+        <v>1153830.5625</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="24">
+        <v>46002</v>
+      </c>
+      <c r="H62" s="25">
+        <v>593</v>
+      </c>
+      <c r="I62" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J62" s="27">
+        <f t="shared" si="7"/>
+        <v>559347.25</v>
+      </c>
+      <c r="K62" s="28">
+        <v>1</v>
+      </c>
+      <c r="L62" s="39">
+        <f t="shared" si="6"/>
+        <v>1118694.5</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H63" s="25">
+        <v>837</v>
+      </c>
+      <c r="I63" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J63" s="27">
+        <f t="shared" si="7"/>
+        <v>789500.25</v>
+      </c>
+      <c r="K63" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="L63" s="40">
+        <f t="shared" si="6"/>
+        <v>986875.3125</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="24">
+        <v>46000</v>
+      </c>
+      <c r="H64" s="25">
+        <v>665</v>
+      </c>
+      <c r="I64" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J64" s="27">
+        <f t="shared" si="7"/>
+        <v>627261.25</v>
+      </c>
+      <c r="K64" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L64" s="40">
+        <f t="shared" si="6"/>
+        <v>940891.875</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H65" s="25">
+        <v>555</v>
+      </c>
+      <c r="I65" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J65" s="27">
+        <f t="shared" si="7"/>
+        <v>523503.75</v>
+      </c>
+      <c r="K65" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="L65" s="40">
+        <f t="shared" si="6"/>
+        <v>916131.5625</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="24">
+        <v>46000</v>
+      </c>
+      <c r="H66" s="25">
+        <v>536</v>
+      </c>
+      <c r="I66" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J66" s="27">
+        <f t="shared" si="7"/>
+        <v>505582</v>
+      </c>
+      <c r="K66" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="L66" s="40">
+        <f t="shared" si="6"/>
+        <v>884768.5</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H67" s="25">
+        <v>685</v>
+      </c>
+      <c r="I67" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J67" s="27">
+        <f t="shared" si="7"/>
+        <v>646126.25</v>
+      </c>
+      <c r="K67" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="L67" s="40">
+        <f t="shared" si="6"/>
+        <v>807657.8125</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H68" s="25">
+        <v>456</v>
+      </c>
+      <c r="I68" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J68" s="27">
+        <f t="shared" si="7"/>
+        <v>430122</v>
+      </c>
+      <c r="K68" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="L68" s="40">
+        <f t="shared" si="6"/>
+        <v>752713.5</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H69" s="25">
+        <v>380</v>
+      </c>
+      <c r="I69" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J69" s="27">
+        <f t="shared" si="7"/>
+        <v>358435</v>
+      </c>
+      <c r="K69" s="28">
+        <v>1</v>
+      </c>
+      <c r="L69" s="40">
+        <f t="shared" si="6"/>
+        <v>716870</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H70" s="25">
+        <v>367</v>
+      </c>
+      <c r="I70" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J70" s="27">
+        <f t="shared" si="7"/>
+        <v>346172.75</v>
+      </c>
+      <c r="K70" s="28">
+        <v>1</v>
+      </c>
+      <c r="L70" s="40">
+        <f t="shared" si="6"/>
+        <v>692345.5</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H71" s="25">
+        <v>542</v>
+      </c>
+      <c r="I71" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J71" s="27">
+        <f t="shared" si="7"/>
+        <v>511241.5</v>
+      </c>
+      <c r="K71" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="L71" s="40">
+        <f t="shared" si="6"/>
+        <v>639051.875</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H72" s="25">
+        <v>328</v>
+      </c>
+      <c r="I72" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J72" s="27">
+        <f t="shared" si="7"/>
+        <v>309386</v>
+      </c>
+      <c r="K72" s="30">
+        <v>1</v>
+      </c>
+      <c r="L72" s="40">
+        <f t="shared" si="6"/>
+        <v>618772</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="24">
+        <v>46000</v>
+      </c>
+      <c r="H73" s="25">
+        <v>271</v>
+      </c>
+      <c r="I73" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J73" s="27">
+        <f t="shared" si="7"/>
+        <v>255620.75</v>
+      </c>
+      <c r="K73" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="L73" s="41">
+        <f t="shared" si="6"/>
+        <v>447336.3125</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="24">
+        <v>46000</v>
+      </c>
+      <c r="H74" s="25">
+        <v>344</v>
+      </c>
+      <c r="I74" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J74" s="27">
+        <f t="shared" si="7"/>
+        <v>324478</v>
+      </c>
+      <c r="K74" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="L74" s="41">
+        <f t="shared" si="6"/>
+        <v>405597.5</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H75" s="25">
+        <v>281</v>
+      </c>
+      <c r="I75" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J75" s="27">
+        <f t="shared" si="7"/>
+        <v>265053.25</v>
+      </c>
+      <c r="K75" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L75" s="41">
+        <f t="shared" si="6"/>
+        <v>397579.875</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H76" s="25">
+        <v>240</v>
+      </c>
+      <c r="I76" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J76" s="27">
+        <f t="shared" si="7"/>
+        <v>226380</v>
+      </c>
+      <c r="K76" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="L76" s="41">
+        <f t="shared" si="6"/>
+        <v>396165</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H77" s="25">
+        <v>301</v>
+      </c>
+      <c r="I77" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J77" s="27">
+        <f t="shared" si="7"/>
+        <v>283918.25</v>
+      </c>
+      <c r="K77" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="L77" s="41">
+        <f t="shared" si="6"/>
+        <v>354897.8125</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H78" s="25">
+        <v>188</v>
+      </c>
+      <c r="I78" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J78" s="27">
+        <f t="shared" si="7"/>
+        <v>177331</v>
+      </c>
+      <c r="K78" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L78" s="41">
+        <f t="shared" si="6"/>
+        <v>265996.5</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H79" s="25">
+        <v>80</v>
+      </c>
+      <c r="I79" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J79" s="27">
+        <f t="shared" si="7"/>
+        <v>75460</v>
+      </c>
+      <c r="K79" s="28">
+        <v>1</v>
+      </c>
+      <c r="L79" s="41">
+        <f t="shared" si="6"/>
+        <v>150920</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="24">
+        <v>45995</v>
+      </c>
+      <c r="H80" s="25">
+        <v>52</v>
+      </c>
+      <c r="I80" s="26">
+        <v>943.25</v>
+      </c>
+      <c r="J80" s="27">
+        <f t="shared" si="7"/>
+        <v>49049</v>
+      </c>
+      <c r="K80" s="30">
+        <v>1</v>
+      </c>
+      <c r="L80" s="27">
+        <f t="shared" si="6"/>
+        <v>98098</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="45">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="33">
+        <v>45995</v>
+      </c>
+      <c r="H81" s="25">
+        <v>46</v>
+      </c>
+      <c r="I81" s="34">
+        <v>943.25</v>
+      </c>
+      <c r="J81" s="27">
+        <f t="shared" si="7"/>
+        <v>43389.5</v>
+      </c>
+      <c r="K81" s="35">
+        <v>1</v>
+      </c>
+      <c r="L81" s="27">
+        <f t="shared" si="6"/>
+        <v>86779</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="5">
+        <v>45272</v>
+      </c>
+      <c r="H82" s="17"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="15">
+        <v>1</v>
+      </c>
+      <c r="L82" s="18">
+        <v>3166000</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:O82"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D51:D81">
+      <formula1>"Produção,Desenvolvimento,Descontinuado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E51:E81">
+      <formula1>"Detalhada (IFPUG),Estimativa (NESMA),INDICATIVA (NESMA)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>